--- a/medicine/Psychotrope/Cortese_di_Gavi_frizzante/Cortese_di_Gavi_frizzante.xlsx
+++ b/medicine/Psychotrope/Cortese_di_Gavi_frizzante/Cortese_di_Gavi_frizzante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cortese di Gavi frizzante (appelé aussi Gavi frizzante) est un vin effervescent  blanc italien de la région Piémont doté d'une appellation DOCG depuis le 10 août 1998. Seuls ont droit à la DOCG les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province d'Alexandrie dans les 11 communes de Bosio, Capriata d'Orba, Carrosio, Francavilla Bisio, Gavi, Novi Ligure, Parodi Ligure, Pasturana, San Cristoforo, Serravalle Scrivia et  Tassarolo.
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille, fine mousse
 odeur :  fin, délicat, typé
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
